--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.010320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.010320.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2747,12 +2747,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4855,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6287,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7387,12 +7387,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7807,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8143,12 +8143,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8521,12 +8521,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8777,12 +8777,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9625,12 +9625,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9877,12 +9877,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9923,12 +9923,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9965,12 +9965,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10049,12 +10049,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10137,12 +10137,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10179,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10221,12 +10221,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10309,12 +10309,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11275,12 +11275,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11615,12 +11615,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12161,12 +12161,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12203,12 +12203,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12455,12 +12455,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13295,12 +13295,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13463,12 +13463,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13841,12 +13841,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13925,12 +13925,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14261,12 +14261,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14853,12 +14853,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15869,12 +15869,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16629,12 +16629,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16791,12 +16791,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17463,12 +17463,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18009,12 +18009,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18387,12 +18387,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18639,12 +18639,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18765,12 +18765,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18807,12 +18807,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18933,12 +18933,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19273,12 +19273,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19315,12 +19315,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19441,12 +19441,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19651,12 +19651,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19693,12 +19693,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19735,12 +19735,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20113,12 +20113,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20281,12 +20281,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20407,12 +20407,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20449,12 +20449,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20533,12 +20533,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20701,12 +20701,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20789,12 +20789,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21209,12 +21209,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21335,12 +21335,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21839,12 +21839,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21965,12 +21965,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22091,12 +22091,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22511,12 +22511,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22599,12 +22599,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22641,12 +22641,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22683,12 +22683,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22809,12 +22809,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22935,12 +22935,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23397,12 +23397,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23523,12 +23523,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23775,12 +23775,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23901,12 +23901,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23943,12 +23943,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24615,12 +24615,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24699,12 +24699,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
